--- a/modelos de datos/Modelo Entidad.xlsx
+++ b/modelos de datos/Modelo Entidad.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>USUARIOS</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>app django "CONFIG"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               (1,1)</t>
   </si>
 </sst>
 </file>
@@ -835,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,6 +923,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2144,7 +2148,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2365,8 +2369,8 @@
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="19" t="s">
-        <v>12</v>
+      <c r="M12" s="42" t="s">
+        <v>29</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="13"/>
